--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Thbs1-Itga2b.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Thbs1-Itga2b.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>28.5755121551632</v>
+        <v>122.253015</v>
       </c>
       <c r="H2">
-        <v>28.5755121551632</v>
+        <v>366.759045</v>
       </c>
       <c r="I2">
-        <v>0.07555758762531722</v>
+        <v>0.1988639364328829</v>
       </c>
       <c r="J2">
-        <v>0.07555758762531722</v>
+        <v>0.1988639364328829</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.760762201121831</v>
+        <v>0.8063316666666666</v>
       </c>
       <c r="N2">
-        <v>0.760762201121831</v>
+        <v>2.418995</v>
       </c>
       <c r="O2">
-        <v>0.1225098069438771</v>
+        <v>0.1277387112198808</v>
       </c>
       <c r="P2">
-        <v>0.1225098069438771</v>
+        <v>0.1277387112198808</v>
       </c>
       <c r="Q2">
-        <v>21.73916952534559</v>
+        <v>98.57647733997499</v>
       </c>
       <c r="R2">
-        <v>21.73916952534559</v>
+        <v>887.188296059775</v>
       </c>
       <c r="S2">
-        <v>0.00925654547312269</v>
+        <v>0.02540262294804876</v>
       </c>
       <c r="T2">
-        <v>0.00925654547312269</v>
+        <v>0.02540262294804876</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>28.5755121551632</v>
+        <v>122.253015</v>
       </c>
       <c r="H3">
-        <v>28.5755121551632</v>
+        <v>366.759045</v>
       </c>
       <c r="I3">
-        <v>0.07555758762531722</v>
+        <v>0.1988639364328829</v>
       </c>
       <c r="J3">
-        <v>0.07555758762531722</v>
+        <v>0.1988639364328829</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>3.52451302212974</v>
+        <v>3.578098999999999</v>
       </c>
       <c r="N3">
-        <v>3.52451302212974</v>
+        <v>10.734297</v>
       </c>
       <c r="O3">
-        <v>0.5675721129093627</v>
+        <v>0.566840884181833</v>
       </c>
       <c r="P3">
-        <v>0.5675721129093627</v>
+        <v>0.5668408841818329</v>
       </c>
       <c r="Q3">
-        <v>100.7147647048994</v>
+        <v>437.4333907184849</v>
       </c>
       <c r="R3">
-        <v>100.7147647048994</v>
+        <v>3936.900516466364</v>
       </c>
       <c r="S3">
-        <v>0.04288437965483562</v>
+        <v>0.1127242095594952</v>
       </c>
       <c r="T3">
-        <v>0.04288437965483562</v>
+        <v>0.1127242095594951</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>28.5755121551632</v>
+        <v>122.253015</v>
       </c>
       <c r="H4">
-        <v>28.5755121551632</v>
+        <v>366.759045</v>
       </c>
       <c r="I4">
-        <v>0.07555758762531722</v>
+        <v>0.1988639364328829</v>
       </c>
       <c r="J4">
-        <v>0.07555758762531722</v>
+        <v>0.1988639364328829</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.213965225728124</v>
+        <v>0.215895</v>
       </c>
       <c r="N4">
-        <v>0.213965225728124</v>
+        <v>0.647685</v>
       </c>
       <c r="O4">
-        <v>0.03445602115615329</v>
+        <v>0.03420199180918047</v>
       </c>
       <c r="P4">
-        <v>0.03445602115615329</v>
+        <v>0.03420199180918047</v>
       </c>
       <c r="Q4">
-        <v>6.114165908576244</v>
+        <v>26.393814673425</v>
       </c>
       <c r="R4">
-        <v>6.114165908576244</v>
+        <v>237.544332060825</v>
       </c>
       <c r="S4">
-        <v>0.002603413837725836</v>
+        <v>0.006801542725018845</v>
       </c>
       <c r="T4">
-        <v>0.002603413837725836</v>
+        <v>0.006801542725018844</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>28.5755121551632</v>
+        <v>122.253015</v>
       </c>
       <c r="H5">
-        <v>28.5755121551632</v>
+        <v>366.759045</v>
       </c>
       <c r="I5">
-        <v>0.07555758762531722</v>
+        <v>0.1988639364328829</v>
       </c>
       <c r="J5">
-        <v>0.07555758762531722</v>
+        <v>0.1988639364328829</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.71056609712272</v>
+        <v>1.712026</v>
       </c>
       <c r="N5">
-        <v>1.71056609712272</v>
+        <v>5.136078</v>
       </c>
       <c r="O5">
-        <v>0.2754620589906068</v>
+        <v>0.2712184127891059</v>
       </c>
       <c r="P5">
-        <v>0.2754620589906068</v>
+        <v>0.2712184127891059</v>
       </c>
       <c r="Q5">
-        <v>48.88030230054036</v>
+        <v>209.30034025839</v>
       </c>
       <c r="R5">
-        <v>48.88030230054036</v>
+        <v>1883.70306232551</v>
       </c>
       <c r="S5">
-        <v>0.02081324865963308</v>
+        <v>0.05393556120032014</v>
       </c>
       <c r="T5">
-        <v>0.02081324865963308</v>
+        <v>0.05393556120032013</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>131.336294436091</v>
+        <v>132.5447616666667</v>
       </c>
       <c r="H6">
-        <v>131.336294436091</v>
+        <v>397.634285</v>
       </c>
       <c r="I6">
-        <v>0.347271241241651</v>
+        <v>0.2156050961899926</v>
       </c>
       <c r="J6">
-        <v>0.347271241241651</v>
+        <v>0.2156050961899926</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.760762201121831</v>
+        <v>0.8063316666666666</v>
       </c>
       <c r="N6">
-        <v>0.760762201121831</v>
+        <v>2.418995</v>
       </c>
       <c r="O6">
-        <v>0.1225098069438771</v>
+        <v>0.1277387112198808</v>
       </c>
       <c r="P6">
-        <v>0.1225098069438771</v>
+        <v>0.1277387112198808</v>
       </c>
       <c r="Q6">
-        <v>99.91568844238549</v>
+        <v>106.8750385826194</v>
       </c>
       <c r="R6">
-        <v>99.91568844238549</v>
+        <v>961.8753472435749</v>
       </c>
       <c r="S6">
-        <v>0.04254413272167523</v>
+        <v>0.02754111711974809</v>
       </c>
       <c r="T6">
-        <v>0.04254413272167523</v>
+        <v>0.02754111711974809</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>131.336294436091</v>
+        <v>132.5447616666667</v>
       </c>
       <c r="H7">
-        <v>131.336294436091</v>
+        <v>397.634285</v>
       </c>
       <c r="I7">
-        <v>0.347271241241651</v>
+        <v>0.2156050961899926</v>
       </c>
       <c r="J7">
-        <v>0.347271241241651</v>
+        <v>0.2156050961899926</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>3.52451302212974</v>
+        <v>3.578098999999999</v>
       </c>
       <c r="N7">
-        <v>3.52451302212974</v>
+        <v>10.734297</v>
       </c>
       <c r="O7">
-        <v>0.5675721129093627</v>
+        <v>0.566840884181833</v>
       </c>
       <c r="P7">
-        <v>0.5675721129093627</v>
+        <v>0.5668408841818329</v>
       </c>
       <c r="Q7">
-        <v>462.8964800182685</v>
+        <v>474.2582791747382</v>
       </c>
       <c r="R7">
-        <v>462.8964800182685</v>
+        <v>4268.324512572644</v>
       </c>
       <c r="S7">
-        <v>0.1971014721441809</v>
+        <v>0.1222137833584446</v>
       </c>
       <c r="T7">
-        <v>0.1971014721441809</v>
+        <v>0.1222137833584445</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>131.336294436091</v>
+        <v>132.5447616666667</v>
       </c>
       <c r="H8">
-        <v>131.336294436091</v>
+        <v>397.634285</v>
       </c>
       <c r="I8">
-        <v>0.347271241241651</v>
+        <v>0.2156050961899926</v>
       </c>
       <c r="J8">
-        <v>0.347271241241651</v>
+        <v>0.2156050961899926</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.213965225728124</v>
+        <v>0.215895</v>
       </c>
       <c r="N8">
-        <v>0.213965225728124</v>
+        <v>0.647685</v>
       </c>
       <c r="O8">
-        <v>0.03445602115615329</v>
+        <v>0.03420199180918047</v>
       </c>
       <c r="P8">
-        <v>0.03445602115615329</v>
+        <v>0.03420199180918047</v>
       </c>
       <c r="Q8">
-        <v>28.10139988531357</v>
+        <v>28.61575132002499</v>
       </c>
       <c r="R8">
-        <v>28.10139988531357</v>
+        <v>257.541761880225</v>
       </c>
       <c r="S8">
-        <v>0.01196558523514594</v>
+        <v>0.007374123733907694</v>
       </c>
       <c r="T8">
-        <v>0.01196558523514594</v>
+        <v>0.007374123733907694</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>131.336294436091</v>
+        <v>132.5447616666667</v>
       </c>
       <c r="H9">
-        <v>131.336294436091</v>
+        <v>397.634285</v>
       </c>
       <c r="I9">
-        <v>0.347271241241651</v>
+        <v>0.2156050961899926</v>
       </c>
       <c r="J9">
-        <v>0.347271241241651</v>
+        <v>0.2156050961899926</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.71056609712272</v>
+        <v>1.712026</v>
       </c>
       <c r="N9">
-        <v>1.71056609712272</v>
+        <v>5.136078</v>
       </c>
       <c r="O9">
-        <v>0.2754620589906068</v>
+        <v>0.2712184127891059</v>
       </c>
       <c r="P9">
-        <v>0.2754620589906068</v>
+        <v>0.2712184127891059</v>
       </c>
       <c r="Q9">
-        <v>224.6594125841046</v>
+        <v>226.9200781371367</v>
       </c>
       <c r="R9">
-        <v>224.6594125841046</v>
+        <v>2042.28070323423</v>
       </c>
       <c r="S9">
-        <v>0.09566005114064892</v>
+        <v>0.05847607197789229</v>
       </c>
       <c r="T9">
-        <v>0.09566005114064892</v>
+        <v>0.05847607197789229</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>178.507776328152</v>
+        <v>320.0894206666666</v>
       </c>
       <c r="H10">
-        <v>178.507776328152</v>
+        <v>960.2682619999999</v>
       </c>
       <c r="I10">
-        <v>0.4719991326306936</v>
+        <v>0.5206762565675317</v>
       </c>
       <c r="J10">
-        <v>0.4719991326306936</v>
+        <v>0.5206762565675317</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.760762201121831</v>
+        <v>0.8063316666666666</v>
       </c>
       <c r="N10">
-        <v>0.760762201121831</v>
+        <v>2.418995</v>
       </c>
       <c r="O10">
-        <v>0.1225098069438771</v>
+        <v>0.1277387112198808</v>
       </c>
       <c r="P10">
-        <v>0.1225098069438771</v>
+        <v>0.1277387112198808</v>
       </c>
       <c r="Q10">
-        <v>135.8019688367684</v>
+        <v>258.098236048521</v>
       </c>
       <c r="R10">
-        <v>135.8019688367684</v>
+        <v>2322.884124436689</v>
       </c>
       <c r="S10">
-        <v>0.05782452261626371</v>
+        <v>0.0665105139767285</v>
       </c>
       <c r="T10">
-        <v>0.05782452261626371</v>
+        <v>0.0665105139767285</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>178.507776328152</v>
+        <v>320.0894206666666</v>
       </c>
       <c r="H11">
-        <v>178.507776328152</v>
+        <v>960.2682619999999</v>
       </c>
       <c r="I11">
-        <v>0.4719991326306936</v>
+        <v>0.5206762565675317</v>
       </c>
       <c r="J11">
-        <v>0.4719991326306936</v>
+        <v>0.5206762565675317</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>3.52451302212974</v>
+        <v>3.578098999999999</v>
       </c>
       <c r="N11">
-        <v>3.52451302212974</v>
+        <v>10.734297</v>
       </c>
       <c r="O11">
-        <v>0.5675721129093627</v>
+        <v>0.566840884181833</v>
       </c>
       <c r="P11">
-        <v>0.5675721129093627</v>
+        <v>0.5668408841818329</v>
       </c>
       <c r="Q11">
-        <v>629.1529822199947</v>
+        <v>1145.311635997979</v>
       </c>
       <c r="R11">
-        <v>629.1529822199947</v>
+        <v>10307.80472398181</v>
       </c>
       <c r="S11">
-        <v>0.2678935449985893</v>
+        <v>0.2951405896452266</v>
       </c>
       <c r="T11">
-        <v>0.2678935449985893</v>
+        <v>0.2951405896452265</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>178.507776328152</v>
+        <v>320.0894206666666</v>
       </c>
       <c r="H12">
-        <v>178.507776328152</v>
+        <v>960.2682619999999</v>
       </c>
       <c r="I12">
-        <v>0.4719991326306936</v>
+        <v>0.5206762565675317</v>
       </c>
       <c r="J12">
-        <v>0.4719991326306936</v>
+        <v>0.5206762565675317</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.213965225728124</v>
+        <v>0.215895</v>
       </c>
       <c r="N12">
-        <v>0.213965225728124</v>
+        <v>0.647685</v>
       </c>
       <c r="O12">
-        <v>0.03445602115615329</v>
+        <v>0.03420199180918047</v>
       </c>
       <c r="P12">
-        <v>0.03445602115615329</v>
+        <v>0.03420199180918047</v>
       </c>
       <c r="Q12">
-        <v>38.19445665627851</v>
+        <v>69.10570547482999</v>
       </c>
       <c r="R12">
-        <v>38.19445665627851</v>
+        <v>621.9513492734699</v>
       </c>
       <c r="S12">
-        <v>0.01626321209960918</v>
+        <v>0.01780816506235747</v>
       </c>
       <c r="T12">
-        <v>0.01626321209960918</v>
+        <v>0.01780816506235747</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>178.507776328152</v>
+        <v>320.0894206666666</v>
       </c>
       <c r="H13">
-        <v>178.507776328152</v>
+        <v>960.2682619999999</v>
       </c>
       <c r="I13">
-        <v>0.4719991326306936</v>
+        <v>0.5206762565675317</v>
       </c>
       <c r="J13">
-        <v>0.4719991326306936</v>
+        <v>0.5206762565675317</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>1.71056609712272</v>
+        <v>1.712026</v>
       </c>
       <c r="N13">
-        <v>1.71056609712272</v>
+        <v>5.136078</v>
       </c>
       <c r="O13">
-        <v>0.2754620589906068</v>
+        <v>0.2712184127891059</v>
       </c>
       <c r="P13">
-        <v>0.2754620589906068</v>
+        <v>0.2712184127891059</v>
       </c>
       <c r="Q13">
-        <v>305.3493502597024</v>
+        <v>548.0014105062706</v>
       </c>
       <c r="R13">
-        <v>305.3493502597024</v>
+        <v>4932.012694556436</v>
       </c>
       <c r="S13">
-        <v>0.1300178529162314</v>
+        <v>0.1412169878832192</v>
       </c>
       <c r="T13">
-        <v>0.1300178529162314</v>
+        <v>0.1412169878832192</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>39.7755534428927</v>
+        <v>39.86989333333333</v>
       </c>
       <c r="H14">
-        <v>39.7755534428927</v>
+        <v>119.60968</v>
       </c>
       <c r="I14">
-        <v>0.1051720385023381</v>
+        <v>0.06485471080959287</v>
       </c>
       <c r="J14">
-        <v>0.1051720385023381</v>
+        <v>0.06485471080959287</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.760762201121831</v>
+        <v>0.8063316666666666</v>
       </c>
       <c r="N14">
-        <v>0.760762201121831</v>
+        <v>2.418995</v>
       </c>
       <c r="O14">
-        <v>0.1225098069438771</v>
+        <v>0.1277387112198808</v>
       </c>
       <c r="P14">
-        <v>0.1225098069438771</v>
+        <v>0.1277387112198808</v>
       </c>
       <c r="Q14">
-        <v>30.25973758805408</v>
+        <v>32.14835754128888</v>
       </c>
       <c r="R14">
-        <v>30.25973758805408</v>
+        <v>289.3352178716</v>
       </c>
       <c r="S14">
-        <v>0.01288460613281544</v>
+        <v>0.008284457175355467</v>
       </c>
       <c r="T14">
-        <v>0.01288460613281544</v>
+        <v>0.008284457175355467</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,52 +1337,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>39.7755534428927</v>
+        <v>39.86989333333333</v>
       </c>
       <c r="H15">
-        <v>39.7755534428927</v>
+        <v>119.60968</v>
       </c>
       <c r="I15">
-        <v>0.1051720385023381</v>
+        <v>0.06485471080959287</v>
       </c>
       <c r="J15">
-        <v>0.1051720385023381</v>
+        <v>0.06485471080959287</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>3.52451302212974</v>
+        <v>3.578098999999999</v>
       </c>
       <c r="N15">
-        <v>3.52451302212974</v>
+        <v>10.734297</v>
       </c>
       <c r="O15">
-        <v>0.5675721129093627</v>
+        <v>0.566840884181833</v>
       </c>
       <c r="P15">
-        <v>0.5675721129093627</v>
+        <v>0.5668408841818329</v>
       </c>
       <c r="Q15">
-        <v>140.1894560718927</v>
+        <v>142.6584254661066</v>
       </c>
       <c r="R15">
-        <v>140.1894560718927</v>
+        <v>1283.92582919496</v>
       </c>
       <c r="S15">
-        <v>0.05969271611175686</v>
+        <v>0.03676230161866671</v>
       </c>
       <c r="T15">
-        <v>0.05969271611175686</v>
+        <v>0.0367623016186667</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>39.7755534428927</v>
+        <v>39.86989333333333</v>
       </c>
       <c r="H16">
-        <v>39.7755534428927</v>
+        <v>119.60968</v>
       </c>
       <c r="I16">
-        <v>0.1051720385023381</v>
+        <v>0.06485471080959287</v>
       </c>
       <c r="J16">
-        <v>0.1051720385023381</v>
+        <v>0.06485471080959287</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.213965225728124</v>
+        <v>0.215895</v>
       </c>
       <c r="N16">
-        <v>0.213965225728124</v>
+        <v>0.647685</v>
       </c>
       <c r="O16">
-        <v>0.03445602115615329</v>
+        <v>0.03420199180918047</v>
       </c>
       <c r="P16">
-        <v>0.03445602115615329</v>
+        <v>0.03420199180918047</v>
       </c>
       <c r="Q16">
-        <v>8.510585270869596</v>
+        <v>8.607710621199999</v>
       </c>
       <c r="R16">
-        <v>8.510585270869596</v>
+        <v>77.46939559079999</v>
       </c>
       <c r="S16">
-        <v>0.003623809983672328</v>
+        <v>0.002218160287896463</v>
       </c>
       <c r="T16">
-        <v>0.003623809983672328</v>
+        <v>0.002218160287896463</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>39.7755534428927</v>
+        <v>39.86989333333333</v>
       </c>
       <c r="H17">
-        <v>39.7755534428927</v>
+        <v>119.60968</v>
       </c>
       <c r="I17">
-        <v>0.1051720385023381</v>
+        <v>0.06485471080959287</v>
       </c>
       <c r="J17">
-        <v>0.1051720385023381</v>
+        <v>0.06485471080959287</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.71056609712272</v>
+        <v>1.712026</v>
       </c>
       <c r="N17">
-        <v>1.71056609712272</v>
+        <v>5.136078</v>
       </c>
       <c r="O17">
-        <v>0.2754620589906068</v>
+        <v>0.2712184127891059</v>
       </c>
       <c r="P17">
-        <v>0.2754620589906068</v>
+        <v>0.2712184127891059</v>
       </c>
       <c r="Q17">
-        <v>68.03871321370514</v>
+        <v>68.25829400389333</v>
       </c>
       <c r="R17">
-        <v>68.03871321370514</v>
+        <v>614.32464603504</v>
       </c>
       <c r="S17">
-        <v>0.02897090627409342</v>
+        <v>0.01758979172767425</v>
       </c>
       <c r="T17">
-        <v>0.02897090627409342</v>
+        <v>0.01758979172767425</v>
       </c>
     </row>
   </sheetData>
